--- a/My SAS/SAS Graph/Graph.xlsx
+++ b/My SAS/SAS Graph/Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NewDisk\SAS\My SAS\SAS Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14739F40-AFFE-4D06-B75D-E49BEAECFD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005706D-89E2-4EEA-91E5-1B0DD7292D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" firstSheet="20" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="12401" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sgplot" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="Units for measurements" sheetId="23" r:id="rId22"/>
     <sheet name="Reserve keywords" sheetId="24" r:id="rId23"/>
     <sheet name="ODS Graphics vs SAS-GRAPH" sheetId="25" r:id="rId24"/>
+    <sheet name="Plot type capability" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="3032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9003" uniqueCount="3058">
   <si>
     <t>Proc SGPLOT</t>
   </si>
@@ -11243,12 +11244,90 @@
       <t>Procedures</t>
     </r>
   </si>
+  <si>
+    <t>SCATTER</t>
+  </si>
+  <si>
+    <t>SERIES</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>NEEDLE</t>
+  </si>
+  <si>
+    <t>VECTOR</t>
+  </si>
+  <si>
+    <t>VBARPARM</t>
+  </si>
+  <si>
+    <t>HBARPARM</t>
+  </si>
+  <si>
+    <t>BUBBLE</t>
+  </si>
+  <si>
+    <t>HIGHLOW</t>
+  </si>
+  <si>
+    <t>REFLINE</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>LOESS</t>
+  </si>
+  <si>
+    <t>PBSPLINE</t>
+  </si>
+  <si>
+    <t>DENSITY</t>
+  </si>
+  <si>
+    <t>VBOX</t>
+  </si>
+  <si>
+    <t>HBOX</t>
+  </si>
+  <si>
+    <t>VBAR</t>
+  </si>
+  <si>
+    <t>VLINE</t>
+  </si>
+  <si>
+    <t>HBAR</t>
+  </si>
+  <si>
+    <t>HLINE</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>BASIC PLOT</t>
+  </si>
+  <si>
+    <t>FIT AND CONFIDENCE PLOTS</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION PLOTS</t>
+  </si>
+  <si>
+    <t>CATEGORIZATION PLOTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11500,8 +11579,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF253746"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF253746"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF253746"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11523,6 +11619,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96B1C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7ECEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11689,7 +11797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11890,40 +11998,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11948,17 +12068,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -11969,13 +12086,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -11983,19 +12097,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -42108,10 +42231,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="74" t="s">
         <v>1412</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>1413</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -42119,24 +42242,24 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="74" t="s">
         <v>1417</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="74" t="s">
         <v>1418</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -42144,31 +42267,31 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="74" t="s">
         <v>1423</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="74" t="s">
         <v>1424</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -42176,24 +42299,24 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="74" t="s">
         <v>1427</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="74" t="s">
         <v>1428</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -42201,31 +42324,31 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="7" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="74" t="s">
         <v>1430</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="74" t="s">
         <v>1431</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -42233,17 +42356,17 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="74" t="s">
         <v>1432</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="74" t="s">
         <v>1433</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -42251,24 +42374,24 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="74" t="s">
         <v>1434</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="74" t="s">
         <v>1435</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -42276,24 +42399,24 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="74" t="s">
         <v>1436</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="74" t="s">
         <v>1437</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -42301,24 +42424,24 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="74" t="s">
         <v>1438</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="74" t="s">
         <v>1439</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -42326,38 +42449,38 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="3" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="74" t="s">
         <v>1441</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="74" t="s">
         <v>1442</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -42365,17 +42488,17 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="74" t="s">
         <v>1443</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="74" t="s">
         <v>1444</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -42383,24 +42506,24 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="74" t="s">
         <v>1445</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="74" t="s">
         <v>1446</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -42408,17 +42531,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="74" t="s">
         <v>1447</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="74" t="s">
         <v>1448</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -42426,31 +42549,31 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="3" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="74" t="s">
         <v>1449</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="74" t="s">
         <v>1450</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -42458,31 +42581,31 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="74" t="s">
         <v>1451</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="74" t="s">
         <v>1452</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -42490,24 +42613,24 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="74" t="s">
         <v>1453</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="74" t="s">
         <v>1454</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -42515,24 +42638,24 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="74" t="s">
         <v>1455</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="74" t="s">
         <v>1456</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -42540,24 +42663,24 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="3" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="74" t="s">
         <v>1458</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="74" t="s">
         <v>1459</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -42565,24 +42688,24 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
       <c r="C59" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="74" t="s">
         <v>1460</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="74" t="s">
         <v>1461</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -42590,46 +42713,46 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="3" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="76"/>
       <c r="C64" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="78" t="s">
         <v>1463</v>
       </c>
-      <c r="B65" s="74"/>
-      <c r="C65" s="74"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
     </row>
     <row r="67" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="77" t="s">
         <v>1464</v>
       </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
     </row>
     <row r="68" spans="1:3" ht="14.55" thickBot="1">
       <c r="A68" s="2" t="s">
@@ -42643,10 +42766,10 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="74" t="s">
         <v>1465</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="74" t="s">
         <v>1466</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -42654,24 +42777,24 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
       <c r="C71" s="7" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="74" t="s">
         <v>1467</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="74" t="s">
         <v>1468</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -42679,24 +42802,24 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
       <c r="C74" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="74" t="s">
         <v>1469</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="74" t="s">
         <v>1470</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -42704,24 +42827,24 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
       <c r="C76" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="76"/>
       <c r="C77" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="74" t="s">
         <v>1472</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="74" t="s">
         <v>1473</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -42729,52 +42852,52 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="75"/>
       <c r="C79" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="75"/>
       <c r="C80" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="75"/>
       <c r="C81" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
       <c r="C82" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="72"/>
-      <c r="B83" s="72"/>
+      <c r="A83" s="75"/>
+      <c r="B83" s="75"/>
       <c r="C83" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
       <c r="C84" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="74" t="s">
         <v>1474</v>
       </c>
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="74" t="s">
         <v>1475</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -42782,52 +42905,52 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="72"/>
-      <c r="B86" s="72"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="75"/>
       <c r="C86" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
+      <c r="A87" s="75"/>
+      <c r="B87" s="75"/>
       <c r="C87" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="72"/>
-      <c r="B88" s="72"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="75"/>
       <c r="C88" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
       <c r="C89" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="75"/>
       <c r="C90" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A91" s="71"/>
-      <c r="B91" s="71"/>
+      <c r="A91" s="76"/>
+      <c r="B91" s="76"/>
       <c r="C91" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="74" t="s">
         <v>1476</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="74" t="s">
         <v>1477</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -42835,24 +42958,24 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="72"/>
-      <c r="B93" s="72"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="75"/>
       <c r="C93" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
       <c r="C94" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="74" t="s">
         <v>1478</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="74" t="s">
         <v>1479</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -42860,17 +42983,17 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
       <c r="C96" s="7" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="70" t="s">
+      <c r="A97" s="74" t="s">
         <v>1480</v>
       </c>
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="74" t="s">
         <v>1481</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -42878,66 +43001,66 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="72"/>
-      <c r="B98" s="72"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
       <c r="C98" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
       <c r="C99" s="3" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="72"/>
-      <c r="B100" s="72"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
       <c r="C100" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
       <c r="C101" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="72"/>
-      <c r="B102" s="72"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="75"/>
       <c r="C102" s="3" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
       <c r="C103" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
       <c r="C104" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
       <c r="C105" s="7" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="70" t="s">
+      <c r="A106" s="74" t="s">
         <v>1485</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="74" t="s">
         <v>1486</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -42945,38 +43068,38 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="72"/>
-      <c r="B107" s="72"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="75"/>
       <c r="C107" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="75"/>
       <c r="C109" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A110" s="71"/>
-      <c r="B110" s="71"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="76"/>
       <c r="C110" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="70" t="s">
+      <c r="A111" s="74" t="s">
         <v>1488</v>
       </c>
-      <c r="B111" s="70" t="s">
+      <c r="B111" s="74" t="s">
         <v>1489</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -42984,45 +43107,45 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
+      <c r="A112" s="75"/>
+      <c r="B112" s="75"/>
       <c r="C112" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="72"/>
-      <c r="B113" s="72"/>
+      <c r="A113" s="75"/>
+      <c r="B113" s="75"/>
       <c r="C113" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="72"/>
-      <c r="B114" s="72"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="75"/>
       <c r="C114" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="72"/>
-      <c r="B115" s="72"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="75"/>
       <c r="C115" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A116" s="71"/>
-      <c r="B116" s="71"/>
+      <c r="A116" s="76"/>
+      <c r="B116" s="76"/>
       <c r="C116" s="7" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="70" t="s">
+      <c r="A117" s="74" t="s">
         <v>1490</v>
       </c>
-      <c r="B117" s="70" t="s">
+      <c r="B117" s="74" t="s">
         <v>1491</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -43030,45 +43153,45 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="72"/>
-      <c r="B118" s="72"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="75"/>
       <c r="C118" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="72"/>
-      <c r="B119" s="72"/>
+      <c r="A119" s="75"/>
+      <c r="B119" s="75"/>
       <c r="C119" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="72"/>
-      <c r="B120" s="72"/>
+      <c r="A120" s="75"/>
+      <c r="B120" s="75"/>
       <c r="C120" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="72"/>
-      <c r="B121" s="72"/>
+      <c r="A121" s="75"/>
+      <c r="B121" s="75"/>
       <c r="C121" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A122" s="71"/>
-      <c r="B122" s="71"/>
+      <c r="A122" s="76"/>
+      <c r="B122" s="76"/>
       <c r="C122" s="7" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="74" t="s">
         <v>1492</v>
       </c>
-      <c r="B123" s="70" t="s">
+      <c r="B123" s="74" t="s">
         <v>1493</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -43076,52 +43199,52 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="72"/>
-      <c r="B124" s="72"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="75"/>
       <c r="C124" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="75"/>
       <c r="C125" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="72"/>
-      <c r="B126" s="72"/>
+      <c r="A126" s="75"/>
+      <c r="B126" s="75"/>
       <c r="C126" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="72"/>
-      <c r="B127" s="72"/>
+      <c r="A127" s="75"/>
+      <c r="B127" s="75"/>
       <c r="C127" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="72"/>
-      <c r="B128" s="72"/>
+      <c r="A128" s="75"/>
+      <c r="B128" s="75"/>
       <c r="C128" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A129" s="71"/>
-      <c r="B129" s="71"/>
+      <c r="A129" s="76"/>
+      <c r="B129" s="76"/>
       <c r="C129" s="7" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="70" t="s">
+      <c r="A130" s="74" t="s">
         <v>1495</v>
       </c>
-      <c r="B130" s="70" t="s">
+      <c r="B130" s="74" t="s">
         <v>1496</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -43129,52 +43252,52 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="72"/>
-      <c r="B131" s="72"/>
+      <c r="A131" s="75"/>
+      <c r="B131" s="75"/>
       <c r="C131" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="72"/>
-      <c r="B132" s="72"/>
+      <c r="A132" s="75"/>
+      <c r="B132" s="75"/>
       <c r="C132" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="72"/>
-      <c r="B133" s="72"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="75"/>
       <c r="C133" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="72"/>
-      <c r="B134" s="72"/>
+      <c r="A134" s="75"/>
+      <c r="B134" s="75"/>
       <c r="C134" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="72"/>
-      <c r="B135" s="72"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="75"/>
       <c r="C135" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A136" s="71"/>
-      <c r="B136" s="71"/>
+      <c r="A136" s="76"/>
+      <c r="B136" s="76"/>
       <c r="C136" s="7" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="70" t="s">
+      <c r="A137" s="74" t="s">
         <v>1497</v>
       </c>
-      <c r="B137" s="70" t="s">
+      <c r="B137" s="74" t="s">
         <v>1498</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -43182,59 +43305,59 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="72"/>
-      <c r="B138" s="72"/>
+      <c r="A138" s="75"/>
+      <c r="B138" s="75"/>
       <c r="C138" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="72"/>
-      <c r="B139" s="72"/>
+      <c r="A139" s="75"/>
+      <c r="B139" s="75"/>
       <c r="C139" s="3" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="72"/>
-      <c r="B140" s="72"/>
+      <c r="A140" s="75"/>
+      <c r="B140" s="75"/>
       <c r="C140" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="72"/>
-      <c r="B141" s="72"/>
+      <c r="A141" s="75"/>
+      <c r="B141" s="75"/>
       <c r="C141" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="72"/>
-      <c r="B142" s="72"/>
+      <c r="A142" s="75"/>
+      <c r="B142" s="75"/>
       <c r="C142" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="72"/>
-      <c r="B143" s="72"/>
+      <c r="A143" s="75"/>
+      <c r="B143" s="75"/>
       <c r="C143" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A144" s="71"/>
-      <c r="B144" s="71"/>
+      <c r="A144" s="76"/>
+      <c r="B144" s="76"/>
       <c r="C144" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="70" t="s">
+      <c r="A145" s="74" t="s">
         <v>1500</v>
       </c>
-      <c r="B145" s="70" t="s">
+      <c r="B145" s="74" t="s">
         <v>1501</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -43242,52 +43365,52 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="72"/>
-      <c r="B146" s="72"/>
+      <c r="A146" s="75"/>
+      <c r="B146" s="75"/>
       <c r="C146" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="72"/>
-      <c r="B147" s="72"/>
+      <c r="A147" s="75"/>
+      <c r="B147" s="75"/>
       <c r="C147" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="72"/>
-      <c r="B148" s="72"/>
+      <c r="A148" s="75"/>
+      <c r="B148" s="75"/>
       <c r="C148" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="72"/>
-      <c r="B149" s="72"/>
+      <c r="A149" s="75"/>
+      <c r="B149" s="75"/>
       <c r="C149" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="72"/>
-      <c r="B150" s="72"/>
+      <c r="A150" s="75"/>
+      <c r="B150" s="75"/>
       <c r="C150" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A151" s="71"/>
-      <c r="B151" s="71"/>
+      <c r="A151" s="76"/>
+      <c r="B151" s="76"/>
       <c r="C151" s="7" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="70" t="s">
+      <c r="A152" s="74" t="s">
         <v>1502</v>
       </c>
-      <c r="B152" s="70" t="s">
+      <c r="B152" s="74" t="s">
         <v>1503</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -43295,52 +43418,52 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="72"/>
-      <c r="B153" s="72"/>
+      <c r="A153" s="75"/>
+      <c r="B153" s="75"/>
       <c r="C153" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="72"/>
-      <c r="B154" s="72"/>
+      <c r="A154" s="75"/>
+      <c r="B154" s="75"/>
       <c r="C154" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="72"/>
-      <c r="B155" s="72"/>
+      <c r="A155" s="75"/>
+      <c r="B155" s="75"/>
       <c r="C155" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="72"/>
-      <c r="B156" s="72"/>
+      <c r="A156" s="75"/>
+      <c r="B156" s="75"/>
       <c r="C156" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="72"/>
-      <c r="B157" s="72"/>
+      <c r="A157" s="75"/>
+      <c r="B157" s="75"/>
       <c r="C157" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A158" s="71"/>
-      <c r="B158" s="71"/>
+      <c r="A158" s="76"/>
+      <c r="B158" s="76"/>
       <c r="C158" s="7" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="70" t="s">
+      <c r="A159" s="74" t="s">
         <v>1504</v>
       </c>
-      <c r="B159" s="70" t="s">
+      <c r="B159" s="74" t="s">
         <v>1505</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -43348,45 +43471,45 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="72"/>
-      <c r="B160" s="72"/>
+      <c r="A160" s="75"/>
+      <c r="B160" s="75"/>
       <c r="C160" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="72"/>
-      <c r="B161" s="72"/>
+      <c r="A161" s="75"/>
+      <c r="B161" s="75"/>
       <c r="C161" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="72"/>
-      <c r="B162" s="72"/>
+      <c r="A162" s="75"/>
+      <c r="B162" s="75"/>
       <c r="C162" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="72"/>
-      <c r="B163" s="72"/>
+      <c r="A163" s="75"/>
+      <c r="B163" s="75"/>
       <c r="C163" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A164" s="71"/>
-      <c r="B164" s="71"/>
+      <c r="A164" s="76"/>
+      <c r="B164" s="76"/>
       <c r="C164" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="70" t="s">
+      <c r="A165" s="74" t="s">
         <v>1506</v>
       </c>
-      <c r="B165" s="70" t="s">
+      <c r="B165" s="74" t="s">
         <v>1507</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -43394,52 +43517,52 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="72"/>
-      <c r="B166" s="72"/>
+      <c r="A166" s="75"/>
+      <c r="B166" s="75"/>
       <c r="C166" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="72"/>
-      <c r="B167" s="72"/>
+      <c r="A167" s="75"/>
+      <c r="B167" s="75"/>
       <c r="C167" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="72"/>
-      <c r="B168" s="72"/>
+      <c r="A168" s="75"/>
+      <c r="B168" s="75"/>
       <c r="C168" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="72"/>
-      <c r="B169" s="72"/>
+      <c r="A169" s="75"/>
+      <c r="B169" s="75"/>
       <c r="C169" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="72"/>
-      <c r="B170" s="72"/>
+      <c r="A170" s="75"/>
+      <c r="B170" s="75"/>
       <c r="C170" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A171" s="71"/>
-      <c r="B171" s="71"/>
+      <c r="A171" s="76"/>
+      <c r="B171" s="76"/>
       <c r="C171" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="70" t="s">
+      <c r="A172" s="74" t="s">
         <v>1508</v>
       </c>
-      <c r="B172" s="70" t="s">
+      <c r="B172" s="74" t="s">
         <v>1509</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -43447,52 +43570,52 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="72"/>
-      <c r="B173" s="72"/>
+      <c r="A173" s="75"/>
+      <c r="B173" s="75"/>
       <c r="C173" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="72"/>
-      <c r="B174" s="72"/>
+      <c r="A174" s="75"/>
+      <c r="B174" s="75"/>
       <c r="C174" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="72"/>
-      <c r="B175" s="72"/>
+      <c r="A175" s="75"/>
+      <c r="B175" s="75"/>
       <c r="C175" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="72"/>
-      <c r="B176" s="72"/>
+      <c r="A176" s="75"/>
+      <c r="B176" s="75"/>
       <c r="C176" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="72"/>
-      <c r="B177" s="72"/>
+      <c r="A177" s="75"/>
+      <c r="B177" s="75"/>
       <c r="C177" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A178" s="71"/>
-      <c r="B178" s="71"/>
+      <c r="A178" s="76"/>
+      <c r="B178" s="76"/>
       <c r="C178" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="70" t="s">
+      <c r="A179" s="74" t="s">
         <v>1510</v>
       </c>
-      <c r="B179" s="70" t="s">
+      <c r="B179" s="74" t="s">
         <v>1511</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -43500,45 +43623,45 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="72"/>
-      <c r="B180" s="72"/>
+      <c r="A180" s="75"/>
+      <c r="B180" s="75"/>
       <c r="C180" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="72"/>
-      <c r="B181" s="72"/>
+      <c r="A181" s="75"/>
+      <c r="B181" s="75"/>
       <c r="C181" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="72"/>
-      <c r="B182" s="72"/>
+      <c r="A182" s="75"/>
+      <c r="B182" s="75"/>
       <c r="C182" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="72"/>
-      <c r="B183" s="72"/>
+      <c r="A183" s="75"/>
+      <c r="B183" s="75"/>
       <c r="C183" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A184" s="71"/>
-      <c r="B184" s="71"/>
+      <c r="A184" s="76"/>
+      <c r="B184" s="76"/>
       <c r="C184" s="7" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="70" t="s">
+      <c r="A185" s="74" t="s">
         <v>1512</v>
       </c>
-      <c r="B185" s="70" t="s">
+      <c r="B185" s="74" t="s">
         <v>1513</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -43546,52 +43669,52 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="72"/>
-      <c r="B186" s="72"/>
+      <c r="A186" s="75"/>
+      <c r="B186" s="75"/>
       <c r="C186" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="72"/>
-      <c r="B187" s="72"/>
+      <c r="A187" s="75"/>
+      <c r="B187" s="75"/>
       <c r="C187" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="72"/>
-      <c r="B188" s="72"/>
+      <c r="A188" s="75"/>
+      <c r="B188" s="75"/>
       <c r="C188" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="72"/>
-      <c r="B189" s="72"/>
+      <c r="A189" s="75"/>
+      <c r="B189" s="75"/>
       <c r="C189" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="72"/>
-      <c r="B190" s="72"/>
+      <c r="A190" s="75"/>
+      <c r="B190" s="75"/>
       <c r="C190" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A191" s="71"/>
-      <c r="B191" s="71"/>
+      <c r="A191" s="76"/>
+      <c r="B191" s="76"/>
       <c r="C191" s="7" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="70" t="s">
+      <c r="A192" s="74" t="s">
         <v>1514</v>
       </c>
-      <c r="B192" s="70" t="s">
+      <c r="B192" s="74" t="s">
         <v>1515</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -43599,24 +43722,24 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="72"/>
-      <c r="B193" s="72"/>
+      <c r="A193" s="75"/>
+      <c r="B193" s="75"/>
       <c r="C193" s="3" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A194" s="71"/>
-      <c r="B194" s="71"/>
+      <c r="A194" s="76"/>
+      <c r="B194" s="76"/>
       <c r="C194" s="7" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="70" t="s">
+      <c r="A195" s="74" t="s">
         <v>1516</v>
       </c>
-      <c r="B195" s="70" t="s">
+      <c r="B195" s="74" t="s">
         <v>1517</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -43624,24 +43747,24 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="72"/>
-      <c r="B196" s="72"/>
+      <c r="A196" s="75"/>
+      <c r="B196" s="75"/>
       <c r="C196" s="3" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A197" s="71"/>
-      <c r="B197" s="71"/>
+      <c r="A197" s="76"/>
+      <c r="B197" s="76"/>
       <c r="C197" s="7" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="70" t="s">
+      <c r="A198" s="74" t="s">
         <v>1518</v>
       </c>
-      <c r="B198" s="70" t="s">
+      <c r="B198" s="74" t="s">
         <v>1515</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -43649,17 +43772,17 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A199" s="71"/>
-      <c r="B199" s="71"/>
+      <c r="A199" s="76"/>
+      <c r="B199" s="76"/>
       <c r="C199" s="7" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="70" t="s">
+      <c r="A200" s="74" t="s">
         <v>1519</v>
       </c>
-      <c r="B200" s="70" t="s">
+      <c r="B200" s="74" t="s">
         <v>1517</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -43667,25 +43790,25 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A201" s="71"/>
-      <c r="B201" s="71"/>
+      <c r="A201" s="76"/>
+      <c r="B201" s="76"/>
       <c r="C201" s="7" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A202" s="74" t="s">
+      <c r="A202" s="78" t="s">
         <v>1520</v>
       </c>
-      <c r="B202" s="74"/>
-      <c r="C202" s="74"/>
+      <c r="B202" s="78"/>
+      <c r="C202" s="78"/>
     </row>
     <row r="204" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A204" s="75" t="s">
+      <c r="A204" s="77" t="s">
         <v>1521</v>
       </c>
-      <c r="B204" s="75"/>
-      <c r="C204" s="75"/>
+      <c r="B204" s="77"/>
+      <c r="C204" s="77"/>
     </row>
     <row r="205" spans="1:3" ht="14.55" thickBot="1">
       <c r="A205" s="2" t="s">
@@ -43702,7 +43825,7 @@
       <c r="A206" s="15" t="s">
         <v>1524</v>
       </c>
-      <c r="B206" s="70" t="s">
+      <c r="B206" s="74" t="s">
         <v>1531</v>
       </c>
       <c r="C206" s="4" t="s">
@@ -43713,7 +43836,7 @@
       <c r="A207" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="B207" s="72"/>
+      <c r="B207" s="75"/>
       <c r="C207" s="3" t="s">
         <v>1414</v>
       </c>
@@ -43722,7 +43845,7 @@
       <c r="A208" s="16" t="s">
         <v>1526</v>
       </c>
-      <c r="B208" s="72"/>
+      <c r="B208" s="75"/>
       <c r="C208" s="8" t="s">
         <v>1499</v>
       </c>
@@ -43731,7 +43854,7 @@
       <c r="A209" s="16" t="s">
         <v>1527</v>
       </c>
-      <c r="B209" s="72"/>
+      <c r="B209" s="75"/>
       <c r="C209" s="3" t="s">
         <v>1415</v>
       </c>
@@ -43740,7 +43863,7 @@
       <c r="A210" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="B210" s="72"/>
+      <c r="B210" s="75"/>
       <c r="C210" s="7" t="s">
         <v>1421</v>
       </c>
@@ -43749,20 +43872,20 @@
       <c r="A211" s="16" t="s">
         <v>1529</v>
       </c>
-      <c r="B211" s="72"/>
+      <c r="B211" s="75"/>
       <c r="C211" s="6"/>
     </row>
     <row r="212" spans="1:3" ht="14.55" thickBot="1">
       <c r="A212" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="B212" s="72"/>
+      <c r="B212" s="75"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="15" t="s">
         <v>1532</v>
       </c>
-      <c r="B213" s="70" t="s">
+      <c r="B213" s="74" t="s">
         <v>1536</v>
       </c>
       <c r="C213" s="4" t="s">
@@ -43773,7 +43896,7 @@
       <c r="A214" s="16" t="s">
         <v>1533</v>
       </c>
-      <c r="B214" s="72"/>
+      <c r="B214" s="75"/>
       <c r="C214" s="3" t="s">
         <v>1414</v>
       </c>
@@ -43782,7 +43905,7 @@
       <c r="A215" s="16" t="s">
         <v>1534</v>
       </c>
-      <c r="B215" s="72"/>
+      <c r="B215" s="75"/>
       <c r="C215" s="8" t="s">
         <v>1499</v>
       </c>
@@ -43791,23 +43914,23 @@
       <c r="A216" s="16" t="s">
         <v>1535</v>
       </c>
-      <c r="B216" s="72"/>
+      <c r="B216" s="75"/>
       <c r="C216" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.55" thickBot="1">
       <c r="A217" s="17"/>
-      <c r="B217" s="71"/>
+      <c r="B217" s="76"/>
       <c r="C217" s="9" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="70" t="s">
+      <c r="A218" s="74" t="s">
         <v>1538</v>
       </c>
-      <c r="B218" s="70" t="s">
+      <c r="B218" s="74" t="s">
         <v>1539</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -43815,22 +43938,22 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="72"/>
-      <c r="B219" s="72"/>
+      <c r="A219" s="75"/>
+      <c r="B219" s="75"/>
       <c r="C219" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="72"/>
-      <c r="B220" s="72"/>
+      <c r="A220" s="75"/>
+      <c r="B220" s="75"/>
       <c r="C220" s="8" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A221" s="71"/>
-      <c r="B221" s="71"/>
+      <c r="A221" s="76"/>
+      <c r="B221" s="76"/>
       <c r="C221" s="9" t="s">
         <v>1537</v>
       </c>
@@ -43839,7 +43962,7 @@
       <c r="A222" s="11" t="s">
         <v>1540</v>
       </c>
-      <c r="B222" s="70" t="s">
+      <c r="B222" s="74" t="s">
         <v>1543</v>
       </c>
       <c r="C222" s="11" t="s">
@@ -43850,7 +43973,7 @@
       <c r="A223" s="3" t="s">
         <v>1541</v>
       </c>
-      <c r="B223" s="72"/>
+      <c r="B223" s="75"/>
       <c r="C223" s="7" t="s">
         <v>1421</v>
       </c>
@@ -43859,35 +43982,35 @@
       <c r="A224" s="7" t="s">
         <v>1542</v>
       </c>
-      <c r="B224" s="71"/>
+      <c r="B224" s="76"/>
     </row>
     <row r="225" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A225" s="73" t="s">
+      <c r="A225" s="79" t="s">
         <v>1544</v>
       </c>
-      <c r="B225" s="73"/>
-      <c r="C225" s="73"/>
+      <c r="B225" s="79"/>
+      <c r="C225" s="79"/>
     </row>
     <row r="226" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A226" s="73" t="s">
+      <c r="A226" s="79" t="s">
         <v>1545</v>
       </c>
-      <c r="B226" s="73"/>
-      <c r="C226" s="73"/>
+      <c r="B226" s="79"/>
+      <c r="C226" s="79"/>
     </row>
     <row r="227" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A227" s="73" t="s">
+      <c r="A227" s="79" t="s">
         <v>1546</v>
       </c>
-      <c r="B227" s="73"/>
-      <c r="C227" s="73"/>
+      <c r="B227" s="79"/>
+      <c r="C227" s="79"/>
     </row>
     <row r="229" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A229" s="75" t="s">
+      <c r="A229" s="77" t="s">
         <v>1547</v>
       </c>
-      <c r="B229" s="75"/>
-      <c r="C229" s="75"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="77"/>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" ht="14.55" thickBot="1">
@@ -43961,10 +44084,10 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A235" s="70" t="s">
+      <c r="A235" s="74" t="s">
         <v>1561</v>
       </c>
-      <c r="B235" s="70" t="s">
+      <c r="B235" s="74" t="s">
         <v>1562</v>
       </c>
       <c r="C235" s="12" t="s">
@@ -43975,8 +44098,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A236" s="72"/>
-      <c r="B236" s="72"/>
+      <c r="A236" s="75"/>
+      <c r="B236" s="75"/>
       <c r="C236" s="12" t="s">
         <v>1487</v>
       </c>
@@ -43985,8 +44108,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A237" s="71"/>
-      <c r="B237" s="71"/>
+      <c r="A237" s="76"/>
+      <c r="B237" s="76"/>
       <c r="C237" s="12" t="s">
         <v>1565</v>
       </c>
@@ -43995,10 +44118,10 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A238" s="70" t="s">
+      <c r="A238" s="74" t="s">
         <v>1567</v>
       </c>
-      <c r="B238" s="70" t="s">
+      <c r="B238" s="74" t="s">
         <v>1568</v>
       </c>
       <c r="C238" s="12" t="s">
@@ -44009,8 +44132,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A239" s="72"/>
-      <c r="B239" s="72"/>
+      <c r="A239" s="75"/>
+      <c r="B239" s="75"/>
       <c r="C239" s="12" t="s">
         <v>1482</v>
       </c>
@@ -44019,8 +44142,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A240" s="72"/>
-      <c r="B240" s="72"/>
+      <c r="A240" s="75"/>
+      <c r="B240" s="75"/>
       <c r="C240" s="12" t="s">
         <v>1483</v>
       </c>
@@ -44029,8 +44152,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A241" s="71"/>
-      <c r="B241" s="71"/>
+      <c r="A241" s="76"/>
+      <c r="B241" s="76"/>
       <c r="C241" s="12" t="s">
         <v>1484</v>
       </c>
@@ -44095,13 +44218,13 @@
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="70" t="s">
+      <c r="A246" s="74" t="s">
         <v>1582</v>
       </c>
-      <c r="B246" s="70" t="s">
+      <c r="B246" s="74" t="s">
         <v>1583</v>
       </c>
-      <c r="C246" s="70" t="s">
+      <c r="C246" s="74" t="s">
         <v>1584</v>
       </c>
       <c r="D246" s="4" t="s">
@@ -44109,41 +44232,41 @@
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="72"/>
-      <c r="B247" s="72"/>
-      <c r="C247" s="72"/>
+      <c r="A247" s="75"/>
+      <c r="B247" s="75"/>
+      <c r="C247" s="75"/>
       <c r="D247" s="3" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="72"/>
-      <c r="B248" s="72"/>
-      <c r="C248" s="72"/>
+      <c r="A248" s="75"/>
+      <c r="B248" s="75"/>
+      <c r="C248" s="75"/>
       <c r="D248" s="3" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="72"/>
-      <c r="B249" s="72"/>
-      <c r="C249" s="72"/>
+      <c r="A249" s="75"/>
+      <c r="B249" s="75"/>
+      <c r="C249" s="75"/>
       <c r="D249" s="3" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A250" s="72"/>
-      <c r="B250" s="72"/>
-      <c r="C250" s="71"/>
+      <c r="A250" s="75"/>
+      <c r="B250" s="75"/>
+      <c r="C250" s="76"/>
       <c r="D250" s="7" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="72"/>
-      <c r="B251" s="72"/>
-      <c r="C251" s="70" t="s">
+      <c r="A251" s="75"/>
+      <c r="B251" s="75"/>
+      <c r="C251" s="74" t="s">
         <v>1590</v>
       </c>
       <c r="D251" s="4" t="s">
@@ -44151,118 +44274,79 @@
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="72"/>
-      <c r="B252" s="72"/>
-      <c r="C252" s="72"/>
+      <c r="A252" s="75"/>
+      <c r="B252" s="75"/>
+      <c r="C252" s="75"/>
       <c r="D252" s="3" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="72"/>
-      <c r="B253" s="72"/>
-      <c r="C253" s="72"/>
+      <c r="A253" s="75"/>
+      <c r="B253" s="75"/>
+      <c r="C253" s="75"/>
       <c r="D253" s="3" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="72"/>
-      <c r="B254" s="72"/>
-      <c r="C254" s="72"/>
+      <c r="A254" s="75"/>
+      <c r="B254" s="75"/>
+      <c r="C254" s="75"/>
       <c r="D254" s="3" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A255" s="71"/>
-      <c r="B255" s="71"/>
-      <c r="C255" s="71"/>
+      <c r="A255" s="76"/>
+      <c r="B255" s="76"/>
+      <c r="C255" s="76"/>
       <c r="D255" s="7" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A256" s="74" t="s">
+      <c r="A256" s="78" t="s">
         <v>1595</v>
       </c>
-      <c r="B256" s="74"/>
-      <c r="C256" s="74"/>
-      <c r="D256" s="74"/>
+      <c r="B256" s="78"/>
+      <c r="C256" s="78"/>
+      <c r="D256" s="78"/>
     </row>
     <row r="257" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A257" s="74" t="s">
+      <c r="A257" s="78" t="s">
         <v>1596</v>
       </c>
-      <c r="B257" s="74"/>
-      <c r="C257" s="74"/>
-      <c r="D257" s="74"/>
+      <c r="B257" s="78"/>
+      <c r="C257" s="78"/>
+      <c r="D257" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="C251:C255"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A256:D256"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A246:A255"/>
-    <mergeCell ref="B246:B255"/>
-    <mergeCell ref="C246:C250"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="B213:B217"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="B185:B191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="B137:B144"/>
-    <mergeCell ref="A145:A151"/>
-    <mergeCell ref="B145:B151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A165:A171"/>
+    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="A123:A129"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A9"/>
@@ -44287,30 +44371,69 @@
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A165:A171"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="A123:A129"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="B185:B191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="B137:B144"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="B213:B217"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C251:C255"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A256:D256"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A246:A255"/>
+    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="C246:C250"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" location="n16s7r916c9vv8n18fjp07ejuljv" display="https://documentation.sas.com/ - n16s7r916c9vv8n18fjp07ejuljv" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
@@ -44356,11 +44479,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>1613</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
@@ -44746,10 +44869,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>1614</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="82"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -44768,7 +44891,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="85" t="s">
         <v>1618</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -44776,13 +44899,13 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="23" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A6" s="81"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="23" t="s">
         <v>1621</v>
       </c>
@@ -44820,7 +44943,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="85" t="s">
         <v>1630</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -44828,22 +44951,22 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="23" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A13" s="81"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="25" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="77" t="s">
         <v>1634</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="82"/>
     </row>
     <row r="16" spans="1:2" ht="14.55" thickBot="1">
       <c r="A16" s="2" t="s">
@@ -44902,22 +45025,22 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="78" t="s">
         <v>1648</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="78"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="83" t="s">
         <v>1649</v>
       </c>
-      <c r="B25" s="82"/>
+      <c r="B25" s="83"/>
     </row>
     <row r="28" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="77" t="s">
         <v>1650</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="82"/>
     </row>
     <row r="29" spans="1:2" ht="14.55" thickBot="1">
       <c r="A29" s="2" t="s">
@@ -44976,16 +45099,16 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="79" t="s">
         <v>1661</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="79"/>
     </row>
     <row r="39" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="77" t="s">
         <v>1662</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="82"/>
     </row>
     <row r="40" spans="1:2" ht="14.55" thickBot="1">
       <c r="A40" s="2" t="s">
@@ -45044,17 +45167,17 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="78" t="s">
         <v>1671</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="78"/>
     </row>
     <row r="50" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="77" t="s">
         <v>1672</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
     </row>
     <row r="51" spans="1:3" ht="14.55" thickBot="1">
       <c r="A51" s="2" t="s">
@@ -45139,18 +45262,18 @@
       <c r="C58" s="26"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="84" t="s">
         <v>1690</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
     </row>
     <row r="62" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="77" t="s">
         <v>1691</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
     </row>
     <row r="63" spans="1:3" ht="14.55" thickBot="1">
       <c r="A63" s="2" t="s">
@@ -45208,18 +45331,18 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="80" t="s">
+      <c r="A69" s="84" t="s">
         <v>1701</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
     </row>
     <row r="71" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="77" t="s">
         <v>1702</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
     </row>
     <row r="72" spans="1:3" ht="28.5" thickBot="1">
       <c r="A72" s="2" t="s">
@@ -45278,6 +45401,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A69:C69"/>
@@ -45288,11 +45416,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" location="p0s0uitvoavi5jn1oztlwfqrkqla" display="https://documentation.sas.com/ - p0s0uitvoavi5jn1oztlwfqrkqla" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -45326,11 +45449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>1748</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:3" ht="14.55" thickBot="1">
       <c r="A2" s="52" t="s">
@@ -45399,10 +45522,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="88" t="s">
         <v>1754</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="88"/>
     </row>
     <row r="10" spans="1:3" ht="14.55" thickBot="1">
       <c r="A10" s="52" t="s">
@@ -45477,10 +45600,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="88" t="s">
         <v>1771</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="88"/>
     </row>
     <row r="21" spans="1:2" ht="14.55" thickBot="1">
       <c r="A21" s="52" t="s">
@@ -45587,10 +45710,10 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="88" t="s">
         <v>1798</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="88"/>
     </row>
     <row r="36" spans="1:2" ht="14.55" thickBot="1">
       <c r="A36" s="52" t="s">
@@ -45665,18 +45788,18 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="88" t="s">
         <v>1815</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
     </row>
     <row r="51" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="87" t="s">
         <v>1816</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
     </row>
     <row r="52" spans="1:3" ht="14.55" thickBot="1">
       <c r="A52" s="37" t="s">
@@ -45844,11 +45967,11 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="88" t="s">
         <v>1853</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
     </row>
     <row r="69" spans="1:3" ht="14.55" thickBot="1">
       <c r="A69" s="52" t="s">
@@ -46071,11 +46194,11 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="87" t="s">
         <v>1901</v>
       </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="83"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:3" ht="14.55" thickBot="1">
       <c r="A91" s="40" t="s">
@@ -46111,11 +46234,11 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.55" thickBot="1">
-      <c r="A95" s="83" t="s">
+      <c r="A95" s="87" t="s">
         <v>1906</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="83"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="87"/>
     </row>
     <row r="96" spans="1:3" ht="14.55" thickBot="1">
       <c r="A96" s="37" t="s">
@@ -46278,17 +46401,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>1715</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="90" t="s">
         <v>1919</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3">
@@ -46342,10 +46465,10 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="95" t="s">
         <v>1926</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="41.95">
@@ -46367,10 +46490,10 @@
       <c r="C11" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="94" t="s">
         <v>1926</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="94"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="43" t="s">
@@ -46397,10 +46520,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="94" t="s">
         <v>1936</v>
       </c>
-      <c r="B18" s="90"/>
+      <c r="B18" s="94"/>
     </row>
     <row r="19" spans="1:2" ht="195.6">
       <c r="A19" s="50" t="s">
@@ -46422,10 +46545,10 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="89" t="s">
         <v>1941</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="89"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="44" t="s">
@@ -46436,20 +46559,20 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="92" t="s">
         <v>1946</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="91" t="s">
         <v>1944</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="42.05" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="91"/>
     </row>
     <row r="26" spans="1:2" ht="45" customHeight="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="87"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="91"/>
     </row>
     <row r="27" spans="1:2" ht="139.69999999999999">
       <c r="A27" s="50" t="s">
@@ -46507,22 +46630,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>1949</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="88"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>2043</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>1950</v>
       </c>
-      <c r="B3" s="84"/>
+      <c r="B3" s="88"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="43" t="s">
@@ -46541,10 +46664,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>1954</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="88"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="43" t="s">
@@ -46595,10 +46718,10 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="88" t="s">
         <v>1965</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="88"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="43" t="s">
@@ -46617,10 +46740,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="88" t="s">
         <v>1968</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="88"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="43" t="s">
@@ -46647,16 +46770,16 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="88" t="s">
         <v>1973</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="88"/>
     </row>
     <row r="25" spans="1:2" ht="29.95" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="88" t="s">
         <v>2014</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="43" t="s">
@@ -46731,10 +46854,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.6" customHeight="1">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="88" t="s">
         <v>2013</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="88"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="43" t="s">
@@ -46841,10 +46964,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="29.95" customHeight="1">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="88" t="s">
         <v>2012</v>
       </c>
-      <c r="B49" s="84"/>
+      <c r="B49" s="88"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="43" t="s">
@@ -46887,10 +47010,10 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="88" t="s">
         <v>2022</v>
       </c>
-      <c r="B56" s="84"/>
+      <c r="B56" s="88"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="43" t="s">
@@ -46925,10 +47048,10 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="88" t="s">
         <v>2029</v>
       </c>
-      <c r="B62" s="84"/>
+      <c r="B62" s="88"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="43" t="s">
@@ -46955,10 +47078,10 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="88" t="s">
         <v>2034</v>
       </c>
-      <c r="B67" s="84"/>
+      <c r="B67" s="88"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="43" t="s">
@@ -47001,16 +47124,16 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="88" t="s">
         <v>2044</v>
       </c>
-      <c r="B74" s="84"/>
+      <c r="B74" s="88"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="88" t="s">
         <v>2045</v>
       </c>
-      <c r="B75" s="84"/>
+      <c r="B75" s="88"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="43" t="s">
@@ -47037,10 +47160,10 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="88" t="s">
         <v>2050</v>
       </c>
-      <c r="B80" s="84"/>
+      <c r="B80" s="88"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="43" t="s">
@@ -47067,10 +47190,10 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="88" t="s">
         <v>2055</v>
       </c>
-      <c r="B85" s="84"/>
+      <c r="B85" s="88"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="43" t="s">
@@ -47097,10 +47220,10 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="88" t="s">
         <v>2060</v>
       </c>
-      <c r="B90" s="84"/>
+      <c r="B90" s="88"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="43" t="s">
@@ -47119,10 +47242,10 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="84" t="s">
+      <c r="A94" s="88" t="s">
         <v>2063</v>
       </c>
-      <c r="B94" s="84"/>
+      <c r="B94" s="88"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="43" t="s">
@@ -47191,20 +47314,20 @@
       <c r="D108" s="46"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="84" t="s">
+      <c r="A149" s="88" t="s">
         <v>1923</v>
       </c>
-      <c r="B149" s="84"/>
-      <c r="C149" s="84"/>
-      <c r="D149" s="84"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="88"/>
+      <c r="D149" s="88"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="84" t="s">
+      <c r="A150" s="88" t="s">
         <v>2156</v>
       </c>
-      <c r="B150" s="84"/>
-      <c r="C150" s="84"/>
-      <c r="D150" s="84"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="88"/>
+      <c r="D150" s="88"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="43" t="s">
@@ -47263,16 +47386,16 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="84" t="s">
+      <c r="A157" s="88" t="s">
         <v>2168</v>
       </c>
-      <c r="B157" s="84"/>
+      <c r="B157" s="88"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="84" t="s">
+      <c r="A158" s="88" t="s">
         <v>2167</v>
       </c>
-      <c r="B158" s="84"/>
+      <c r="B158" s="88"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="43" t="s">
@@ -47304,10 +47427,10 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="84" t="s">
+      <c r="A192" s="88" t="s">
         <v>2167</v>
       </c>
-      <c r="B192" s="84"/>
+      <c r="B192" s="88"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="43" t="s">
@@ -47342,12 +47465,12 @@
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="84" t="s">
+      <c r="A199" s="88" t="s">
         <v>2181</v>
       </c>
-      <c r="B199" s="84"/>
-      <c r="C199" s="84"/>
-      <c r="D199" s="84"/>
+      <c r="B199" s="88"/>
+      <c r="C199" s="88"/>
+      <c r="D199" s="88"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="43" t="s">
@@ -47406,10 +47529,10 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="92" t="s">
+      <c r="A205" s="97" t="s">
         <v>2197</v>
       </c>
-      <c r="B205" s="92"/>
+      <c r="B205" s="97"/>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
@@ -47417,11 +47540,11 @@
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A265" s="84" t="s">
+      <c r="A265" s="88" t="s">
         <v>2199</v>
       </c>
-      <c r="B265" s="84"/>
-      <c r="C265" s="84"/>
+      <c r="B265" s="88"/>
+      <c r="C265" s="88"/>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="43" t="s">
@@ -47490,11 +47613,11 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A273" s="84" t="s">
+      <c r="A273" s="88" t="s">
         <v>2211</v>
       </c>
-      <c r="B273" s="84"/>
-      <c r="C273" s="84"/>
+      <c r="B273" s="88"/>
+      <c r="C273" s="88"/>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="43" t="s">
@@ -47533,11 +47656,11 @@
       <c r="C277" s="46"/>
     </row>
     <row r="279" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A279" s="84" t="s">
+      <c r="A279" s="88" t="s">
         <v>2218</v>
       </c>
-      <c r="B279" s="84"/>
-      <c r="C279" s="84"/>
+      <c r="B279" s="88"/>
+      <c r="C279" s="88"/>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="43" t="s">
@@ -47551,7 +47674,7 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="88" t="s">
+      <c r="A281" s="92" t="s">
         <v>2221</v>
       </c>
       <c r="B281" s="45" t="s">
@@ -47562,7 +47685,7 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="88"/>
+      <c r="A282" s="92"/>
       <c r="B282" s="45" t="s">
         <v>2224</v>
       </c>
@@ -47602,11 +47725,11 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A287" s="84" t="s">
+      <c r="A287" s="88" t="s">
         <v>2232</v>
       </c>
-      <c r="B287" s="84"/>
-      <c r="C287" s="84"/>
+      <c r="B287" s="88"/>
+      <c r="C287" s="88"/>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="43" t="s">
@@ -47675,11 +47798,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A295" s="84" t="s">
+      <c r="A295" s="88" t="s">
         <v>2251</v>
       </c>
-      <c r="B295" s="84"/>
-      <c r="C295" s="84"/>
+      <c r="B295" s="88"/>
+      <c r="C295" s="88"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="43" t="s">
@@ -47754,11 +47877,11 @@
       <c r="C303" s="46"/>
     </row>
     <row r="305" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A305" s="84" t="s">
+      <c r="A305" s="88" t="s">
         <v>2260</v>
       </c>
-      <c r="B305" s="84"/>
-      <c r="C305" s="84"/>
+      <c r="B305" s="88"/>
+      <c r="C305" s="88"/>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="43" t="s">
@@ -47838,17 +47961,17 @@
       </c>
     </row>
     <row r="313" spans="1:3" ht="29.95" customHeight="1">
-      <c r="A313" s="93" t="s">
+      <c r="A313" s="98" t="s">
         <v>2272</v>
       </c>
-      <c r="B313" s="93"/>
-      <c r="C313" s="93"/>
+      <c r="B313" s="98"/>
+      <c r="C313" s="98"/>
     </row>
     <row r="316" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A316" s="91" t="s">
+      <c r="A316" s="95" t="s">
         <v>2273</v>
       </c>
-      <c r="B316" s="91"/>
+      <c r="B316" s="95"/>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="43" t="s">
@@ -47859,7 +47982,7 @@
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="88" t="s">
+      <c r="A318" s="92" t="s">
         <v>2274</v>
       </c>
       <c r="B318" s="45" t="s">
@@ -47867,25 +47990,25 @@
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="88"/>
+      <c r="A319" s="92"/>
       <c r="B319" s="45" t="s">
         <v>2276</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="27.95">
-      <c r="A320" s="88"/>
+      <c r="A320" s="92"/>
       <c r="B320" s="45" t="s">
         <v>2277</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="45.8" customHeight="1">
-      <c r="A321" s="88"/>
+      <c r="A321" s="92"/>
       <c r="B321" s="45" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="41.95">
-      <c r="A322" s="88" t="s">
+      <c r="A322" s="92" t="s">
         <v>2279</v>
       </c>
       <c r="B322" s="45" t="s">
@@ -47893,25 +48016,25 @@
       </c>
     </row>
     <row r="323" spans="1:2" ht="69.849999999999994">
-      <c r="A323" s="88"/>
+      <c r="A323" s="92"/>
       <c r="B323" s="45" t="s">
         <v>2281</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="55.9">
-      <c r="A324" s="88"/>
+      <c r="A324" s="92"/>
       <c r="B324" s="45" t="s">
         <v>2282</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="69.849999999999994">
-      <c r="A325" s="88"/>
+      <c r="A325" s="92"/>
       <c r="B325" s="45" t="s">
         <v>2283</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="111.8">
-      <c r="A326" s="88" t="s">
+      <c r="A326" s="92" t="s">
         <v>2284</v>
       </c>
       <c r="B326" s="45" t="s">
@@ -47919,58 +48042,58 @@
       </c>
     </row>
     <row r="327" spans="1:2" ht="27.95">
-      <c r="A327" s="88"/>
+      <c r="A327" s="92"/>
       <c r="B327" s="45" t="s">
         <v>2286</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="27.95">
-      <c r="A328" s="88"/>
+      <c r="A328" s="92"/>
       <c r="B328" s="45" t="s">
         <v>2287</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="27.95">
-      <c r="A329" s="88"/>
+      <c r="A329" s="92"/>
       <c r="B329" s="45" t="s">
         <v>2288</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="27.95">
-      <c r="A330" s="88"/>
+      <c r="A330" s="92"/>
       <c r="B330" s="45" t="s">
         <v>2289</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="88"/>
+      <c r="A331" s="92"/>
       <c r="B331" s="45" t="s">
         <v>2290</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="88"/>
+      <c r="A332" s="92"/>
       <c r="B332" s="45" t="s">
         <v>2291</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="88"/>
+      <c r="A333" s="92"/>
       <c r="B333" s="45" t="s">
         <v>2292</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="27.95">
-      <c r="A334" s="88"/>
+      <c r="A334" s="92"/>
       <c r="B334" s="45" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="84" t="s">
+      <c r="A336" s="88" t="s">
         <v>2294</v>
       </c>
-      <c r="B336" s="84"/>
+      <c r="B336" s="88"/>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="45" t="s">
@@ -48016,16 +48139,16 @@
       </c>
     </row>
     <row r="344" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A344" s="91" t="s">
+      <c r="A344" s="95" t="s">
         <v>2304</v>
       </c>
-      <c r="B344" s="91"/>
+      <c r="B344" s="95"/>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="84" t="s">
+      <c r="A355" s="88" t="s">
         <v>2305</v>
       </c>
-      <c r="B355" s="84"/>
+      <c r="B355" s="88"/>
     </row>
     <row r="356" spans="1:2" ht="27.95">
       <c r="A356" s="43" t="s">
@@ -48100,10 +48223,10 @@
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A367" s="84" t="s">
+      <c r="A367" s="88" t="s">
         <v>2324</v>
       </c>
-      <c r="B367" s="84"/>
+      <c r="B367" s="88"/>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="43" t="s">
@@ -48210,10 +48333,10 @@
       </c>
     </row>
     <row r="381" spans="1:2" ht="30.8" customHeight="1">
-      <c r="A381" s="94" t="s">
+      <c r="A381" s="96" t="s">
         <v>2350</v>
       </c>
-      <c r="B381" s="84"/>
+      <c r="B381" s="88"/>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="45" t="s">
@@ -48222,6 +48345,36 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A355:B355"/>
     <mergeCell ref="A367:B367"/>
     <mergeCell ref="A381:B381"/>
@@ -48235,36 +48388,6 @@
     <mergeCell ref="A318:A321"/>
     <mergeCell ref="A322:A325"/>
     <mergeCell ref="A326:A334"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A265:C265"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48289,12 +48412,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>2094</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="43" t="s">
@@ -48311,7 +48434,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="41.95">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="92" t="s">
         <v>1427</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -48325,7 +48448,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="88"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="45" t="s">
         <v>1415</v>
       </c>
@@ -48337,7 +48460,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="88"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="45" t="s">
         <v>1416</v>
       </c>
@@ -48349,7 +48472,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="88"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="45" t="s">
         <v>1414</v>
       </c>
@@ -48361,7 +48484,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="41.95">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="92" t="s">
         <v>2082</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -48375,7 +48498,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="88"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="45" t="s">
         <v>1415</v>
       </c>
@@ -48387,7 +48510,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="88"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="45" t="s">
         <v>1416</v>
       </c>
@@ -48399,7 +48522,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="88"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="45" t="s">
         <v>1414</v>
       </c>
@@ -48463,12 +48586,12 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="96" t="s">
         <v>2097</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="42"/>
@@ -48477,10 +48600,10 @@
       <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="29.95" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="88" t="s">
         <v>2099</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="88"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="43" t="s">
@@ -48531,12 +48654,12 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="88" t="s">
         <v>2105</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
     </row>
     <row r="28" spans="1:4" ht="27.95">
       <c r="A28" s="43" t="s">
@@ -48815,11 +48938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>1748</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="s">
@@ -48888,11 +49011,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="102" t="s">
         <v>2356</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="43" t="s">
@@ -48967,12 +49090,12 @@
       <c r="C17" s="45"/>
     </row>
     <row r="19" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="102" t="s">
         <v>2372</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="43" t="s">
@@ -49031,12 +49154,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="88" t="s">
         <v>2385</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="43" t="s">
@@ -49119,20 +49242,20 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="88" t="s">
         <v>2397</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
     </row>
     <row r="34" spans="1:4" ht="29.95" customHeight="1">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="88" t="s">
         <v>2398</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="43" t="s">
@@ -49205,12 +49328,12 @@
       <c r="D41" s="45"/>
     </row>
     <row r="43" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="88" t="s">
         <v>2397</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="43" t="s">
@@ -49273,12 +49396,12 @@
       <c r="D49" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="15.05" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="88" t="s">
         <v>2415</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="43" t="s">
@@ -49329,10 +49452,10 @@
       <c r="D55" s="45"/>
     </row>
     <row r="60" spans="1:4" ht="29.3" customHeight="1">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="88" t="s">
         <v>2479</v>
       </c>
-      <c r="B60" s="84"/>
+      <c r="B60" s="88"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="43" t="s">
@@ -49367,10 +49490,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30.8" customHeight="1">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="88" t="s">
         <v>2488</v>
       </c>
-      <c r="B66" s="84"/>
+      <c r="B66" s="88"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="43" t="s">
@@ -49405,11 +49528,11 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="88" t="s">
         <v>2497</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="43" t="s">
@@ -49567,161 +49690,161 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A91" s="96" t="s">
+      <c r="A91" s="99" t="s">
         <v>2526</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="98"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="101"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="43" t="s">
         <v>1755</v>
       </c>
-      <c r="B92" s="84" t="s">
+      <c r="B92" s="88" t="s">
         <v>1951</v>
       </c>
-      <c r="C92" s="84"/>
+      <c r="C92" s="88"/>
     </row>
     <row r="93" spans="1:3" ht="27.95">
       <c r="A93" s="45" t="s">
         <v>2527</v>
       </c>
-      <c r="B93" s="91" t="s">
+      <c r="B93" s="95" t="s">
         <v>2528</v>
       </c>
-      <c r="C93" s="91"/>
+      <c r="C93" s="95"/>
     </row>
     <row r="94" spans="1:3" ht="41.95">
       <c r="A94" s="45" t="s">
         <v>2529</v>
       </c>
-      <c r="B94" s="91" t="s">
+      <c r="B94" s="95" t="s">
         <v>2530</v>
       </c>
-      <c r="C94" s="91"/>
+      <c r="C94" s="95"/>
     </row>
     <row r="95" spans="1:3" ht="41.95">
       <c r="A95" s="45" t="s">
         <v>2531</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="95" t="s">
         <v>2532</v>
       </c>
-      <c r="C95" s="91"/>
+      <c r="C95" s="95"/>
     </row>
     <row r="96" spans="1:3" ht="119.95" customHeight="1">
       <c r="A96" s="45" t="s">
         <v>2533</v>
       </c>
-      <c r="B96" s="91" t="s">
+      <c r="B96" s="95" t="s">
         <v>2534</v>
       </c>
-      <c r="C96" s="91"/>
+      <c r="C96" s="95"/>
     </row>
     <row r="97" spans="1:3" ht="132.05000000000001" customHeight="1">
       <c r="A97" s="45" t="s">
         <v>2535</v>
       </c>
-      <c r="B97" s="91" t="s">
+      <c r="B97" s="95" t="s">
         <v>2536</v>
       </c>
-      <c r="C97" s="91"/>
+      <c r="C97" s="95"/>
     </row>
     <row r="98" spans="1:3" ht="119.95" customHeight="1">
       <c r="A98" s="45" t="s">
         <v>2537</v>
       </c>
-      <c r="B98" s="91" t="s">
+      <c r="B98" s="95" t="s">
         <v>2538</v>
       </c>
-      <c r="C98" s="91"/>
+      <c r="C98" s="95"/>
     </row>
     <row r="99" spans="1:3" ht="118.5" customHeight="1">
       <c r="A99" s="45" t="s">
         <v>2539</v>
       </c>
-      <c r="B99" s="91" t="s">
+      <c r="B99" s="95" t="s">
         <v>2540</v>
       </c>
-      <c r="C99" s="91"/>
+      <c r="C99" s="95"/>
     </row>
     <row r="100" spans="1:3" ht="27.95">
       <c r="A100" s="45" t="s">
         <v>2541</v>
       </c>
-      <c r="B100" s="91" t="s">
+      <c r="B100" s="95" t="s">
         <v>2542</v>
       </c>
-      <c r="C100" s="91"/>
+      <c r="C100" s="95"/>
     </row>
     <row r="101" spans="1:3" ht="74.95" customHeight="1">
       <c r="A101" s="45" t="s">
         <v>2543</v>
       </c>
-      <c r="B101" s="91" t="s">
+      <c r="B101" s="95" t="s">
         <v>2544</v>
       </c>
-      <c r="C101" s="91"/>
+      <c r="C101" s="95"/>
     </row>
     <row r="102" spans="1:3" ht="166.6" customHeight="1">
       <c r="A102" s="45" t="s">
         <v>2545</v>
       </c>
-      <c r="B102" s="91" t="s">
+      <c r="B102" s="95" t="s">
         <v>2546</v>
       </c>
-      <c r="C102" s="91"/>
+      <c r="C102" s="95"/>
     </row>
     <row r="103" spans="1:3" ht="155.30000000000001" customHeight="1">
       <c r="A103" s="45" t="s">
         <v>2547</v>
       </c>
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="95" t="s">
         <v>2548</v>
       </c>
-      <c r="C103" s="91"/>
+      <c r="C103" s="95"/>
     </row>
     <row r="104" spans="1:3" ht="41.95">
       <c r="A104" s="45" t="s">
         <v>2549</v>
       </c>
-      <c r="B104" s="91" t="s">
+      <c r="B104" s="95" t="s">
         <v>2550</v>
       </c>
-      <c r="C104" s="91"/>
+      <c r="C104" s="95"/>
     </row>
     <row r="105" spans="1:3" ht="63.8" customHeight="1">
       <c r="A105" s="45" t="s">
         <v>2551</v>
       </c>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="95" t="s">
         <v>2552</v>
       </c>
-      <c r="C105" s="91"/>
+      <c r="C105" s="95"/>
     </row>
     <row r="106" spans="1:3" ht="69.849999999999994">
       <c r="A106" s="45" t="s">
         <v>2553</v>
       </c>
-      <c r="B106" s="91" t="s">
+      <c r="B106" s="95" t="s">
         <v>2554</v>
       </c>
-      <c r="C106" s="91"/>
+      <c r="C106" s="95"/>
     </row>
     <row r="107" spans="1:3" ht="107.2" customHeight="1">
       <c r="A107" s="45" t="s">
         <v>2555</v>
       </c>
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="95" t="s">
         <v>2556</v>
       </c>
-      <c r="C107" s="91"/>
+      <c r="C107" s="95"/>
     </row>
     <row r="110" spans="1:3" ht="15.05" customHeight="1">
-      <c r="A110" s="84" t="s">
+      <c r="A110" s="88" t="s">
         <v>2557</v>
       </c>
-      <c r="B110" s="84"/>
+      <c r="B110" s="88"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="45" t="s">
@@ -49821,24 +49944,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A91:C91"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A19:D19"/>
@@ -49850,6 +49955,24 @@
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49875,14 +49998,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>2426</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="43" t="s">
@@ -50131,44 +50254,44 @@
       <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="96" t="s">
         <v>2474</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="103" t="s">
         <v>2475</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="103" t="s">
         <v>2476</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="103" t="s">
         <v>2477</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="27" t="s">
@@ -50176,14 +50299,14 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="85" t="s">
+      <c r="A136" s="89" t="s">
         <v>2577</v>
       </c>
-      <c r="B136" s="85"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="43" t="s">
@@ -50546,14 +50669,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A155" s="94" t="s">
+      <c r="A155" s="96" t="s">
         <v>2602</v>
       </c>
-      <c r="B155" s="94"/>
-      <c r="C155" s="94"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="94"/>
-      <c r="F155" s="94"/>
+      <c r="B155" s="96"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="96"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -61063,11 +61186,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>2603</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3" ht="27.95">
       <c r="A2" s="43" t="s">
@@ -61145,10 +61268,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="88" t="s">
         <v>2624</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="88"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="43" t="s">
@@ -61231,20 +61354,20 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="96" t="s">
         <v>2637</v>
       </c>
-      <c r="B22" s="94"/>
+      <c r="B22" s="96"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
     </row>
     <row r="25" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="88" t="s">
         <v>2658</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="45" t="s">
@@ -61271,10 +61394,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="88" t="s">
         <v>2638</v>
       </c>
-      <c r="B38" s="84"/>
+      <c r="B38" s="88"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="43" t="s">
@@ -61357,10 +61480,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.05" customHeight="1">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="95" t="s">
         <v>2664</v>
       </c>
-      <c r="B51" s="91"/>
+      <c r="B51" s="95"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="45" t="s">
@@ -61662,28 +61785,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>2729</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="90" t="s">
         <v>1921</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90" t="s">
         <v>2730</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90" t="s">
         <v>2731</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="90" t="s">
         <v>2735</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="86"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="47" t="s">
         <v>2732</v>
       </c>
@@ -61702,8 +61825,8 @@
       <c r="G2" s="47" t="s">
         <v>2734</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:9" ht="27.95">
       <c r="A3" s="45" t="s">
@@ -62255,70 +62378,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>2785</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="82"/>
     </row>
     <row r="2" spans="1:2" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>2798</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="70" t="s">
         <v>2107</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="70" t="s">
         <v>1920</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="71" t="s">
         <v>2786</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="71" t="s">
         <v>2787</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="71" t="s">
         <v>2788</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="71" t="s">
         <v>2789</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="71" t="s">
         <v>2790</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="71" t="s">
         <v>2791</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="71" t="s">
         <v>2792</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="71" t="s">
         <v>2793</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.2" thickBot="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="71" t="s">
         <v>2794</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="71" t="s">
         <v>2795</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="71" t="s">
         <v>2796</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="71" t="s">
         <v>2797</v>
       </c>
     </row>
@@ -62346,32 +62469,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>3005</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>2799</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
     </row>
     <row r="3" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="72" t="s">
         <v>2800</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="72" t="s">
         <v>2801</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="72" t="s">
         <v>2802</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="72" t="s">
         <v>1920</v>
       </c>
     </row>
@@ -62713,383 +62836,383 @@
     </row>
     <row r="28" spans="1:4" ht="14.55" thickBot="1"/>
     <row r="29" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="107" t="s">
         <v>2899</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
     </row>
     <row r="30" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="70" t="s">
         <v>2800</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="70" t="s">
         <v>2801</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="70" t="s">
         <v>2802</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="70" t="s">
         <v>1920</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="71" t="s">
         <v>2900</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="73" t="s">
         <v>2901</v>
       </c>
-      <c r="C31" s="105">
+      <c r="C31" s="73">
         <v>391</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="71" t="s">
         <v>2902</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="71" t="s">
         <v>2903</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="73" t="s">
         <v>2904</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="73">
         <v>392</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="71" t="s">
         <v>2905</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="71" t="s">
         <v>2906</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="73" t="s">
         <v>2907</v>
       </c>
-      <c r="C33" s="105">
+      <c r="C33" s="73">
         <v>393</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="71" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="71" t="s">
         <v>2909</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="73" t="s">
         <v>2910</v>
       </c>
-      <c r="C34" s="105">
+      <c r="C34" s="73">
         <v>394</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="71" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="71" t="s">
         <v>2912</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="73" t="s">
         <v>2913</v>
       </c>
-      <c r="C35" s="105">
+      <c r="C35" s="73">
         <v>395</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="71" t="s">
         <v>2914</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="71" t="s">
         <v>2915</v>
       </c>
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="73" t="s">
         <v>2916</v>
       </c>
-      <c r="C36" s="105">
+      <c r="C36" s="73">
         <v>396</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="71" t="s">
         <v>2917</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="71" t="s">
         <v>2918</v>
       </c>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="73" t="s">
         <v>2919</v>
       </c>
-      <c r="C37" s="105">
+      <c r="C37" s="73">
         <v>397</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="71" t="s">
         <v>2920</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="71" t="s">
         <v>2921</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="73" t="s">
         <v>2922</v>
       </c>
-      <c r="C38" s="105">
+      <c r="C38" s="73">
         <v>398</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="71" t="s">
         <v>2923</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="71" t="s">
         <v>2924</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="73" t="s">
         <v>2925</v>
       </c>
-      <c r="C39" s="105">
+      <c r="C39" s="73">
         <v>399</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="71" t="s">
         <v>2926</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="71" t="s">
         <v>2927</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="73" t="s">
         <v>2928</v>
       </c>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="73" t="s">
         <v>2929</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="71" t="s">
         <v>2930</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="71" t="s">
         <v>2931</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="73" t="s">
         <v>2932</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="73" t="s">
         <v>2933</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="71" t="s">
         <v>2934</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="71" t="s">
         <v>2935</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="73" t="s">
         <v>2936</v>
       </c>
-      <c r="C42" s="105" t="s">
+      <c r="C42" s="73" t="s">
         <v>2937</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="71" t="s">
         <v>2938</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="71" t="s">
         <v>2939</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="73" t="s">
         <v>2940</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="73" t="s">
         <v>2941</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="71" t="s">
         <v>2942</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="71" t="s">
         <v>2943</v>
       </c>
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="73" t="s">
         <v>2944</v>
       </c>
-      <c r="C44" s="105" t="s">
+      <c r="C44" s="73" t="s">
         <v>2945</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="71" t="s">
         <v>2946</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="71" t="s">
         <v>2947</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="73" t="s">
         <v>2948</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="73" t="s">
         <v>2949</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="71" t="s">
         <v>2950</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="71" t="s">
         <v>2951</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="73" t="s">
         <v>2952</v>
       </c>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="73" t="s">
         <v>2953</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="71" t="s">
         <v>2954</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="71" t="s">
         <v>2955</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="73" t="s">
         <v>2956</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="73" t="s">
         <v>2957</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="71" t="s">
         <v>2958</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="71" t="s">
         <v>2959</v>
       </c>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="73" t="s">
         <v>2960</v>
       </c>
-      <c r="C48" s="105" t="s">
+      <c r="C48" s="73" t="s">
         <v>2961</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="71" t="s">
         <v>2962</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="71" t="s">
         <v>2963</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="73" t="s">
         <v>2964</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="73" t="s">
         <v>2965</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="71" t="s">
         <v>2923</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="71" t="s">
         <v>2966</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="73" t="s">
         <v>2967</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="73" t="s">
         <v>2968</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="71" t="s">
         <v>2969</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="71" t="s">
         <v>2970</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="73" t="s">
         <v>2971</v>
       </c>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="73" t="s">
         <v>2972</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="71" t="s">
         <v>2973</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="71" t="s">
         <v>2974</v>
       </c>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="73" t="s">
         <v>2975</v>
       </c>
-      <c r="C52" s="105" t="s">
+      <c r="C52" s="73" t="s">
         <v>2976</v>
       </c>
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="71" t="s">
         <v>2977</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="71" t="s">
         <v>2978</v>
       </c>
-      <c r="B53" s="105" t="s">
+      <c r="B53" s="73" t="s">
         <v>2979</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="73" t="s">
         <v>2980</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="71" t="s">
         <v>2981</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="71" t="s">
         <v>2982</v>
       </c>
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="73" t="s">
         <v>2983</v>
       </c>
-      <c r="C54" s="105" t="s">
+      <c r="C54" s="73" t="s">
         <v>2984</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="71" t="s">
         <v>2985</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.55" thickBot="1"/>
     <row r="57" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="106" t="s">
         <v>2986</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
     </row>
     <row r="58" spans="1:4" ht="14.55" thickBot="1">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="72" t="s">
         <v>2800</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="72" t="s">
         <v>2801</v>
       </c>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="72" t="s">
         <v>2802</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="72" t="s">
         <v>1920</v>
       </c>
     </row>
@@ -63164,12 +63287,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="78" t="s">
         <v>3004</v>
       </c>
-      <c r="B64" s="74"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -63193,7 +63316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C2A0E9-7D79-4021-86B5-F8B00270616C}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -63204,16 +63327,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>3031</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="82"/>
     </row>
     <row r="2" spans="1:2" ht="14.55" thickBot="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="72" t="s">
         <v>3006</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="72" t="s">
         <v>3007</v>
       </c>
     </row>
@@ -63301,19 +63424,19 @@
       <c r="A13" s="4" t="s">
         <v>3028</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="85" t="s">
         <v>3030</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3"/>
-      <c r="B14" s="108"/>
+      <c r="B14" s="84"/>
     </row>
     <row r="15" spans="1:2" ht="14.55" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>3029</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -63323,6 +63446,1753 @@
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="https://documentation.sas.com/doc/en/pgmsascdc/9.4_3.5/grstatproc/n1ukd9sqgqiwwhn1mrx4c1rbse1j.htm" xr:uid="{34ADA1DA-68B1-475A-A7A6-27D253F26885}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD076A56-F582-4DA8-8210-AB259457FEE8}">
+  <dimension ref="A1:AC31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="66.650000000000006">
+      <c r="A1" s="108"/>
+      <c r="B1" s="109" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E1" s="109" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F1" s="109" t="s">
+        <v>3036</v>
+      </c>
+      <c r="G1" s="109" t="s">
+        <v>3037</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>3038</v>
+      </c>
+      <c r="I1" s="109" t="s">
+        <v>3039</v>
+      </c>
+      <c r="J1" s="109" t="s">
+        <v>3040</v>
+      </c>
+      <c r="K1" s="109" t="s">
+        <v>3041</v>
+      </c>
+      <c r="L1" s="109" t="s">
+        <v>3042</v>
+      </c>
+      <c r="M1" s="109" t="s">
+        <v>1910</v>
+      </c>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109" t="s">
+        <v>3043</v>
+      </c>
+      <c r="P1" s="109" t="s">
+        <v>3044</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>3045</v>
+      </c>
+      <c r="R1" s="109" t="s">
+        <v>1829</v>
+      </c>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109" t="s">
+        <v>1835</v>
+      </c>
+      <c r="U1" s="109" t="s">
+        <v>3046</v>
+      </c>
+      <c r="V1" s="109" t="s">
+        <v>3047</v>
+      </c>
+      <c r="W1" s="109" t="s">
+        <v>3048</v>
+      </c>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109" t="s">
+        <v>3049</v>
+      </c>
+      <c r="Z1" s="109" t="s">
+        <v>3050</v>
+      </c>
+      <c r="AA1" s="109" t="s">
+        <v>3051</v>
+      </c>
+      <c r="AB1" s="109" t="s">
+        <v>3052</v>
+      </c>
+      <c r="AC1" s="109" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.05">
+      <c r="A2" s="112" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.05">
+      <c r="A3" s="110" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N3" s="113"/>
+      <c r="O3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R3" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S3" s="113"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.05">
+      <c r="A4" s="110" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N4" s="113"/>
+      <c r="O4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R4" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S4" s="113"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.05">
+      <c r="A5" s="110" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N5" s="113"/>
+      <c r="O5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R5" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S5" s="113"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.05">
+      <c r="A6" s="110" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N6" s="113"/>
+      <c r="O6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R6" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S6" s="113"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.05">
+      <c r="A7" s="110" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N7" s="113"/>
+      <c r="O7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R7" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S7" s="113"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.05">
+      <c r="A8" s="110" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N8" s="113"/>
+      <c r="O8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R8" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S8" s="113"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.05">
+      <c r="A9" s="110" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M9" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N9" s="113"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.05">
+      <c r="A10" s="110" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M10" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N10" s="113"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.05">
+      <c r="A11" s="110" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N11" s="113"/>
+      <c r="O11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R11" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S11" s="113"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.05">
+      <c r="A12" s="110" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N12" s="113"/>
+      <c r="O12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R12" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S12" s="113"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.05">
+      <c r="A13" s="110" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N13" s="113"/>
+      <c r="O13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S13" s="113"/>
+      <c r="T13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="U13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Z13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AA13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AB13" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AC13" s="111" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.05">
+      <c r="A14" s="110" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N14" s="113"/>
+      <c r="O14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S14" s="113"/>
+      <c r="T14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="U14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Z14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AA14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AB14" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AC14" s="111" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.05">
+      <c r="A15" s="110" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N15" s="113"/>
+      <c r="O15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R15" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S15" s="113"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.05">
+      <c r="A16" s="112" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="112"/>
+      <c r="AC16" s="112"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.05">
+      <c r="A17" s="110" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N17" s="113"/>
+      <c r="O17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S17" s="113"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.05">
+      <c r="A18" s="110" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N18" s="113"/>
+      <c r="O18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R18" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S18" s="113"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.05">
+      <c r="A19" s="110" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N19" s="113"/>
+      <c r="O19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R19" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S19" s="113"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.05">
+      <c r="A20" s="110" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="N20" s="113"/>
+      <c r="O20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Q20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R20" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="S20" s="113"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.05">
+      <c r="A21" s="112" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.05">
+      <c r="A22" s="110" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M22" s="111"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="U22" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.05">
+      <c r="A23" s="110" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="U23" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.05">
+      <c r="A24" s="110" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M24" s="111"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W24" s="111"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.05">
+      <c r="A25" s="110" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.05">
+      <c r="A26" s="112" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.05">
+      <c r="A27" s="110" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M27" s="111"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Z27" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.05">
+      <c r="A28" s="110" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M28" s="111"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Z28" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.05">
+      <c r="A29" s="110" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M29" s="111"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AB29" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AC29" s="111" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.05">
+      <c r="A30" s="110" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M30" s="111"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AB30" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AC30" s="111" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.05">
+      <c r="A31" s="110" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M31" s="111"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AB31" s="111" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AC31" s="111" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A21:AC21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="S22:S25"/>
+    <mergeCell ref="X22:X25"/>
+    <mergeCell ref="A26:AC26"/>
+    <mergeCell ref="N27:N31"/>
+    <mergeCell ref="S27:S31"/>
+    <mergeCell ref="X27:X31"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="N3:N15"/>
+    <mergeCell ref="S3:S15"/>
+    <mergeCell ref="X3:X15"/>
+    <mergeCell ref="A16:AC16"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="X17:X20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
